--- a/data2021-04-09.xlsx
+++ b/data2021-04-09.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat_c\Documents\datascienceproj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5980457F-B8BE-46D3-9380-9359AED765A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4245" yWindow="4140" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,9 +37,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>min-price</t>
-  </si>
-  <si>
     <t>헝그리떡볶이치킨</t>
   </si>
   <si>
@@ -824,13 +827,16 @@
   </si>
   <si>
     <t>프랜차이즈</t>
+  </si>
+  <si>
+    <t>minprice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +899,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -939,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,9 +985,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1005,6 +1037,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1180,14 +1230,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,15 +1256,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C2">
         <v>844</v>
@@ -1221,18 +1273,18 @@
         <v>813</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C3">
         <v>108</v>
@@ -1241,15 +1293,15 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>4.5</v>
@@ -1261,15 +1313,15 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1281,15 +1333,15 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>4.8</v>
@@ -1301,15 +1353,15 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1321,15 +1373,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>4.8</v>
@@ -1341,18 +1393,18 @@
         <v>3823</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C9">
         <v>1302</v>
@@ -1361,18 +1413,18 @@
         <v>1301</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C10">
         <v>1847</v>
@@ -1381,18 +1433,18 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C11">
         <v>696</v>
@@ -1401,18 +1453,18 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C12">
         <v>1420</v>
@@ -1421,15 +1473,15 @@
         <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>4.8</v>
@@ -1441,15 +1493,15 @@
         <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -1461,18 +1513,18 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C15">
         <v>1046</v>
@@ -1481,15 +1533,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>4.7</v>
@@ -1501,15 +1553,15 @@
         <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>4.5</v>
@@ -1521,15 +1573,15 @@
         <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>4.5</v>
@@ -1541,18 +1593,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C19">
         <v>468</v>
@@ -1561,15 +1613,15 @@
         <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>4.7</v>
@@ -1581,18 +1633,18 @@
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C21">
         <v>1161</v>
@@ -1601,15 +1653,15 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1621,18 +1673,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C23">
         <v>589</v>
@@ -1641,18 +1693,18 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C24">
         <v>137</v>
@@ -1661,18 +1713,18 @@
         <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C25">
         <v>543</v>
@@ -1681,18 +1733,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F25">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C26">
         <v>529</v>
@@ -1701,15 +1753,15 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F26">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>4.8</v>
@@ -1721,15 +1773,15 @@
         <v>296</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F27">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>4.5</v>
@@ -1741,15 +1793,15 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F28">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>4.7</v>
@@ -1761,18 +1813,18 @@
         <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F29">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C30">
         <v>101</v>
@@ -1781,15 +1833,15 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>4.5</v>
@@ -1801,15 +1853,15 @@
         <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>4.8</v>
@@ -1821,15 +1873,15 @@
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>4.8</v>
@@ -1841,15 +1893,15 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F33">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>4.7</v>
@@ -1861,15 +1913,15 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>4.3</v>
@@ -1881,18 +1933,18 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F35">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C36">
         <v>61</v>
@@ -1901,15 +1953,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F36">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>4.7</v>
@@ -1921,15 +1973,15 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>4.8</v>
@@ -1941,15 +1993,15 @@
         <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F38">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1961,18 +2013,18 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C40">
         <v>471</v>
@@ -1981,15 +2033,15 @@
         <v>270</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F40">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>4.7</v>
@@ -2001,15 +2053,15 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F41">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2021,15 +2073,15 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2041,15 +2093,15 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F43">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2061,15 +2113,15 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F44">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2081,15 +2133,15 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F45">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2101,15 +2153,15 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F46">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>4.8</v>
@@ -2121,15 +2173,15 @@
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>4.5</v>
@@ -2141,18 +2193,18 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F48">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -2161,18 +2213,18 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -2181,15 +2233,15 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -2201,15 +2253,15 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>4.5</v>
@@ -2221,18 +2273,18 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F52">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -2241,15 +2293,15 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F53">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>4.8</v>
@@ -2261,15 +2313,15 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F54">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>4.5</v>
@@ -2281,15 +2333,15 @@
         <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>4.2</v>
@@ -2301,15 +2353,15 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -2321,15 +2373,15 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>4.3</v>
@@ -2341,15 +2393,15 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -2361,15 +2413,15 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>4.7</v>
@@ -2381,15 +2433,15 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F60">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>4.7</v>
@@ -2401,15 +2453,15 @@
         <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F61">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -2421,15 +2473,15 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F62">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2441,18 +2493,18 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C64">
         <v>696</v>
@@ -2461,15 +2513,15 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65">
         <v>4.5</v>
@@ -2481,18 +2533,18 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F65">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C66">
         <v>1046</v>
@@ -2501,15 +2553,15 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F66">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>4.5</v>
@@ -2521,15 +2573,15 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>4.7</v>
@@ -2541,18 +2593,18 @@
         <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F68">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C69">
         <v>325</v>
@@ -2561,15 +2613,15 @@
         <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F69">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>4.8</v>
@@ -2581,18 +2633,18 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F70">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C71">
         <v>47</v>
@@ -2601,18 +2653,18 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F71">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C72">
         <v>661</v>
@@ -2621,15 +2673,15 @@
         <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F72">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>4.7</v>
@@ -2641,15 +2693,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F73">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74">
         <v>4.7</v>
@@ -2661,15 +2713,15 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F74">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>4.5</v>
@@ -2681,18 +2733,18 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F75">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C76">
         <v>19</v>
@@ -2701,15 +2753,15 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F76">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>4.7</v>
@@ -2721,15 +2773,15 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F77">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -2741,18 +2793,18 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F78">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C79">
         <v>662</v>
@@ -2761,18 +2813,18 @@
         <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F79">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C80">
         <v>589</v>
@@ -2781,15 +2833,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F80">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>4.7</v>
@@ -2801,15 +2853,15 @@
         <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F81">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82">
         <v>4.5</v>
@@ -2821,15 +2873,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F82">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>4.7</v>
@@ -2841,15 +2893,15 @@
         <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F83">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2861,15 +2913,15 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B85">
         <v>4.8</v>
@@ -2881,15 +2933,15 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F85">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>4.7</v>
@@ -2901,15 +2953,15 @@
         <v>45</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F86">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>4.8</v>
@@ -2921,18 +2973,18 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F87">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C88">
         <v>76</v>
@@ -2941,15 +2993,15 @@
         <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F88">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>4.8</v>
@@ -2961,15 +3013,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F89">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2981,18 +3033,18 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F90">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C91">
         <v>177</v>
@@ -3001,15 +3053,15 @@
         <v>177</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F91">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -3021,15 +3073,15 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F92">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93">
         <v>4.7</v>
@@ -3041,15 +3093,15 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F93">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94">
         <v>4.7</v>
@@ -3061,15 +3113,15 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F94">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B95">
         <v>4.5</v>
@@ -3081,18 +3133,18 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F95">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -3101,18 +3153,18 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F96">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C97">
         <v>33</v>
@@ -3121,15 +3173,15 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F97">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B98">
         <v>4.7</v>
@@ -3141,15 +3193,15 @@
         <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F98">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3161,35 +3213,35 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F99">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>94</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>260</v>
-      </c>
-      <c r="F100">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>95</v>
       </c>
       <c r="B101">
         <v>4.8</v>
@@ -3201,15 +3253,15 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F101">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102">
         <v>4.5</v>
@@ -3221,15 +3273,15 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F102">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>4.7</v>
@@ -3241,18 +3293,18 @@
         <v>193</v>
       </c>
       <c r="E103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F103">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C104">
         <v>14</v>
@@ -3261,15 +3313,15 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F104">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>4.5</v>
@@ -3281,18 +3333,18 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F105">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C106">
         <v>241</v>
@@ -3301,15 +3353,15 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F106">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>4.5</v>
@@ -3321,18 +3373,18 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F107">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C108">
         <v>377</v>
@@ -3341,15 +3393,15 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F108">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -3361,18 +3413,18 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F109">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C110">
         <v>564</v>
@@ -3381,18 +3433,18 @@
         <v>57</v>
       </c>
       <c r="E110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F110">
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C111">
         <v>154</v>
@@ -3401,18 +3453,18 @@
         <v>153</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F111">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C112">
         <v>38</v>
@@ -3421,15 +3473,15 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F112">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>4.7</v>
@@ -3441,15 +3493,15 @@
         <v>161</v>
       </c>
       <c r="E113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F113">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -3461,18 +3513,18 @@
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F114">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C115">
         <v>85</v>
@@ -3481,15 +3533,15 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F115">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>4.3</v>
@@ -3501,15 +3553,15 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F116">
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -3521,55 +3573,55 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F117">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>260</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>112</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>261</v>
-      </c>
-      <c r="F118">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>260</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>113</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119" t="s">
-        <v>261</v>
-      </c>
-      <c r="F119">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>114</v>
       </c>
       <c r="B120">
         <v>3.3</v>
@@ -3581,18 +3633,18 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F120">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C121">
         <v>282</v>
@@ -3601,18 +3653,18 @@
         <v>211</v>
       </c>
       <c r="E121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F121">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B122">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -3621,15 +3673,15 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F122">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3641,18 +3693,18 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F123">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C124">
         <v>974</v>
@@ -3661,15 +3713,15 @@
         <v>720</v>
       </c>
       <c r="E124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F124">
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125">
         <v>4.5</v>
@@ -3681,18 +3733,18 @@
         <v>57</v>
       </c>
       <c r="E125" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F125">
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C126">
         <v>149</v>
@@ -3701,15 +3753,15 @@
         <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F126">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -3721,15 +3773,15 @@
         <v>32</v>
       </c>
       <c r="E127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F127">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>3.8</v>
@@ -3741,15 +3793,15 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F128">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>3.8</v>
@@ -3761,15 +3813,15 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F129">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>4.7</v>
@@ -3781,15 +3833,15 @@
         <v>268</v>
       </c>
       <c r="E130" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F130">
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>4.8</v>
@@ -3801,15 +3853,15 @@
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F131">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132">
         <v>4.8</v>
@@ -3821,18 +3873,18 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F132">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B133">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C133">
         <v>47</v>
@@ -3841,18 +3893,18 @@
         <v>14</v>
       </c>
       <c r="E133" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F133">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B134">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C134">
         <v>579</v>
@@ -3861,18 +3913,18 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F134">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C135">
         <v>493</v>
@@ -3881,18 +3933,18 @@
         <v>487</v>
       </c>
       <c r="E135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F135">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C136">
         <v>445</v>
@@ -3901,15 +3953,15 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F136">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137">
         <v>4.7</v>
@@ -3921,15 +3973,15 @@
         <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F137">
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138">
         <v>4.5</v>
@@ -3941,18 +3993,18 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F138">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C139">
         <v>305</v>
@@ -3961,15 +4013,15 @@
         <v>190</v>
       </c>
       <c r="E139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F139">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140">
         <v>4.8</v>
@@ -3981,15 +4033,15 @@
         <v>173</v>
       </c>
       <c r="E140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F140">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -4001,15 +4053,15 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F141">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142">
         <v>4.8</v>
@@ -4021,15 +4073,15 @@
         <v>117</v>
       </c>
       <c r="E142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F142">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143">
         <v>4.5</v>
@@ -4041,15 +4093,15 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F143">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144">
         <v>4.5</v>
@@ -4061,15 +4113,15 @@
         <v>149</v>
       </c>
       <c r="E144" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F144">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145">
         <v>4.8</v>
@@ -4081,18 +4133,18 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F145">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C146">
         <v>167</v>
@@ -4101,18 +4153,18 @@
         <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F146">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B147">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C147">
         <v>38</v>
@@ -4121,18 +4173,18 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F147">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C148">
         <v>194</v>
@@ -4141,18 +4193,18 @@
         <v>81</v>
       </c>
       <c r="E148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F148">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C149">
         <v>91</v>
@@ -4161,15 +4213,15 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F149">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -4181,15 +4233,15 @@
         <v>48</v>
       </c>
       <c r="E150" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F150">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -4201,15 +4253,15 @@
         <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F151">
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152">
         <v>4.8</v>
@@ -4221,18 +4273,18 @@
         <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F152">
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B153">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C153">
         <v>18</v>
@@ -4241,15 +4293,15 @@
         <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F153">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B154">
         <v>4.5</v>
@@ -4261,15 +4313,15 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F154">
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -4281,15 +4333,15 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F155">
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4301,18 +4353,18 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F156">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B157">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C157">
         <v>62</v>
@@ -4321,15 +4373,15 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F157">
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B158">
         <v>4.7</v>
@@ -4341,15 +4393,15 @@
         <v>45</v>
       </c>
       <c r="E158" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F158">
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159">
         <v>4.7</v>
@@ -4361,18 +4413,18 @@
         <v>57</v>
       </c>
       <c r="E159" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F159">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B160">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C160">
         <v>51</v>
@@ -4381,18 +4433,18 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F160">
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B161">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C161">
         <v>76</v>
@@ -4401,18 +4453,18 @@
         <v>76</v>
       </c>
       <c r="E161" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F161">
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B162">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C162">
         <v>274</v>
@@ -4421,15 +4473,15 @@
         <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F162">
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B163">
         <v>4.7</v>
@@ -4441,15 +4493,15 @@
         <v>22</v>
       </c>
       <c r="E163" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F163">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B164">
         <v>4.8</v>
@@ -4461,15 +4513,15 @@
         <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F164">
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B165">
         <v>4.7</v>
@@ -4481,15 +4533,15 @@
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F165">
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B166">
         <v>4.8</v>
@@ -4501,18 +4553,18 @@
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F166">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B167">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C167">
         <v>9</v>
@@ -4521,15 +4573,15 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F167">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B168">
         <v>4.5</v>
@@ -4541,15 +4593,15 @@
         <v>64</v>
       </c>
       <c r="E168" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F168">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -4561,18 +4613,18 @@
         <v>24</v>
       </c>
       <c r="E169" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F169">
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B170">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C170">
         <v>76</v>
@@ -4581,15 +4633,15 @@
         <v>75</v>
       </c>
       <c r="E170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F170">
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -4601,15 +4653,15 @@
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F171">
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B172">
         <v>4.7</v>
@@ -4621,15 +4673,15 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F172">
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -4641,18 +4693,18 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F173">
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B174">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C174">
         <v>8</v>
@@ -4661,18 +4713,18 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F174">
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B175">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C175">
         <v>56</v>
@@ -4681,15 +4733,15 @@
         <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F175">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B176">
         <v>4.8</v>
@@ -4701,15 +4753,15 @@
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F176">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -4721,15 +4773,15 @@
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F177">
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B178">
         <v>5</v>
@@ -4741,15 +4793,15 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F178">
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B179">
         <v>5</v>
@@ -4761,18 +4813,18 @@
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F179">
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B180">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C180">
         <v>7</v>
@@ -4781,15 +4833,15 @@
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F180">
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -4801,15 +4853,15 @@
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F181">
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -4821,15 +4873,15 @@
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F182">
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B183">
         <v>3.5</v>
@@ -4841,18 +4893,18 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F183">
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B184">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C184">
         <v>64</v>
@@ -4861,15 +4913,15 @@
         <v>63</v>
       </c>
       <c r="E184" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F184">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -4881,18 +4933,18 @@
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F185">
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B186">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C186">
         <v>19</v>
@@ -4901,15 +4953,15 @@
         <v>19</v>
       </c>
       <c r="E186" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F186">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4921,18 +4973,18 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F187">
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B188">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C188">
         <v>305</v>
@@ -4941,15 +4993,15 @@
         <v>190</v>
       </c>
       <c r="E188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F188">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189">
         <v>3.3</v>
@@ -4961,15 +5013,15 @@
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F189">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B190">
         <v>4.8</v>
@@ -4981,18 +5033,18 @@
         <v>63</v>
       </c>
       <c r="E190" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F190">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B191">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C191">
         <v>417</v>
@@ -5001,18 +5053,18 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F191">
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B192">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C192">
         <v>62</v>
@@ -5021,15 +5073,15 @@
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F192">
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B193">
         <v>4.7</v>
@@ -5041,15 +5093,15 @@
         <v>45</v>
       </c>
       <c r="E193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F193">
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B194">
         <v>4.8</v>
@@ -5061,15 +5113,15 @@
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F194">
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -5081,15 +5133,15 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F195">
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B196">
         <v>5</v>
@@ -5101,18 +5153,18 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F196">
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B197">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C197">
         <v>216</v>
@@ -5121,18 +5173,18 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F197">
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B198">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C198">
         <v>204</v>
@@ -5141,18 +5193,18 @@
         <v>20</v>
       </c>
       <c r="E198" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F198">
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B199">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C199">
         <v>506</v>
@@ -5161,18 +5213,18 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F199">
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B200">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C200">
         <v>43</v>
@@ -5181,15 +5233,15 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F200">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B201">
         <v>4.7</v>
@@ -5201,15 +5253,15 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F201">
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B202">
         <v>4.5</v>
@@ -5221,15 +5273,15 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F202">
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -5241,15 +5293,15 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F203">
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B204">
         <v>4.3</v>
@@ -5261,15 +5313,15 @@
         <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F204">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B205">
         <v>4.7</v>
@@ -5281,15 +5333,15 @@
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F205">
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B206">
         <v>4.8</v>
@@ -5301,15 +5353,15 @@
         <v>17</v>
       </c>
       <c r="E206" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F206">
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B207">
         <v>4.5</v>
@@ -5321,15 +5373,15 @@
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F207">
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B208">
         <v>5</v>
@@ -5341,15 +5393,15 @@
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F208">
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B209">
         <v>4</v>
@@ -5361,15 +5413,15 @@
         <v>32</v>
       </c>
       <c r="E209" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F209">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B210">
         <v>4.8</v>
@@ -5381,15 +5433,15 @@
         <v>156</v>
       </c>
       <c r="E210" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F210">
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B211">
         <v>4.5</v>
@@ -5401,15 +5453,15 @@
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F211">
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B212">
         <v>4.7</v>
@@ -5421,15 +5473,15 @@
         <v>108</v>
       </c>
       <c r="E212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F212">
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B213">
         <v>4.8</v>
@@ -5441,15 +5493,15 @@
         <v>58</v>
       </c>
       <c r="E213" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F213">
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B214">
         <v>4.7</v>
@@ -5461,18 +5513,18 @@
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F214">
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B215">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C215">
         <v>457</v>
@@ -5481,15 +5533,15 @@
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F215">
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B216">
         <v>4.5</v>
@@ -5501,18 +5553,18 @@
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F216">
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B217">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C217">
         <v>61</v>
@@ -5521,15 +5573,15 @@
         <v>30</v>
       </c>
       <c r="E217" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F217">
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B218">
         <v>4.7</v>
@@ -5541,18 +5593,18 @@
         <v>25</v>
       </c>
       <c r="E218" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F218">
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B219">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C219">
         <v>235</v>
@@ -5561,15 +5613,15 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F219">
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B220">
         <v>4.2</v>
@@ -5581,15 +5633,15 @@
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F220">
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B221">
         <v>3.6</v>
@@ -5601,15 +5653,15 @@
         <v>8</v>
       </c>
       <c r="E221" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F221">
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B222">
         <v>4.3</v>
@@ -5621,18 +5673,18 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F222">
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B223">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C223">
         <v>196</v>
@@ -5641,15 +5693,15 @@
         <v>28</v>
       </c>
       <c r="E223" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F223">
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B224">
         <v>4.8</v>
@@ -5661,15 +5713,15 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F224">
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -5681,18 +5733,18 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F225">
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B226">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C226">
         <v>15</v>
@@ -5701,15 +5753,15 @@
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F226">
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -5721,15 +5773,15 @@
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F227">
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B228">
         <v>4.3</v>
@@ -5741,15 +5793,15 @@
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F228">
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B229">
         <v>4.5</v>
@@ -5761,15 +5813,15 @@
         <v>18</v>
       </c>
       <c r="E229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F229">
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B230">
         <v>4.3</v>
@@ -5781,15 +5833,15 @@
         <v>18</v>
       </c>
       <c r="E230" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F230">
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -5801,18 +5853,18 @@
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F231">
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B232">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C232">
         <v>844</v>
@@ -5821,18 +5873,18 @@
         <v>813</v>
       </c>
       <c r="E232" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F232">
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B233">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C233">
         <v>974</v>
@@ -5841,15 +5893,15 @@
         <v>720</v>
       </c>
       <c r="E233" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F233">
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B234">
         <v>4.5</v>
@@ -5861,15 +5913,15 @@
         <v>57</v>
       </c>
       <c r="E234" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F234">
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -5881,18 +5933,18 @@
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F235">
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B236">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C236">
         <v>149</v>
@@ -5901,15 +5953,15 @@
         <v>22</v>
       </c>
       <c r="E236" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F236">
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B237">
         <v>4</v>
@@ -5921,15 +5973,15 @@
         <v>32</v>
       </c>
       <c r="E237" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F237">
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B238">
         <v>3.8</v>
@@ -5941,18 +5993,18 @@
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F238">
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B239">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C239">
         <v>108</v>
@@ -5961,15 +6013,15 @@
         <v>29</v>
       </c>
       <c r="E239" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F239">
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B240">
         <v>3.8</v>
@@ -5981,15 +6033,15 @@
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F240">
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B241">
         <v>4.7</v>
@@ -6001,15 +6053,15 @@
         <v>268</v>
       </c>
       <c r="E241" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F241">
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B242">
         <v>4.8</v>
@@ -6021,15 +6073,15 @@
         <v>156</v>
       </c>
       <c r="E242" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F242">
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B243">
         <v>4.8</v>
@@ -6041,15 +6093,15 @@
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F243">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -6061,15 +6113,15 @@
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F244">
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B245">
         <v>4.8</v>
@@ -6081,18 +6133,18 @@
         <v>3823</v>
       </c>
       <c r="E245" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F245">
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B246">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C246">
         <v>1420</v>
@@ -6101,15 +6153,15 @@
         <v>301</v>
       </c>
       <c r="E246" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F246">
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B247">
         <v>4.8</v>
@@ -6121,15 +6173,15 @@
         <v>310</v>
       </c>
       <c r="E247" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F247">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B248">
         <v>4.8</v>
@@ -6141,18 +6193,18 @@
         <v>69</v>
       </c>
       <c r="E248" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F248">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B249">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C249">
         <v>1046</v>
@@ -6161,15 +6213,15 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F249">
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -6181,15 +6233,15 @@
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F250">
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B251">
         <v>4.8</v>
@@ -6201,15 +6253,15 @@
         <v>51</v>
       </c>
       <c r="E251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F251">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B252">
         <v>4.5</v>
@@ -6221,15 +6273,15 @@
         <v>8</v>
       </c>
       <c r="E252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F252">
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -6241,15 +6293,15 @@
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F253">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B254">
         <v>5</v>
@@ -6261,18 +6313,18 @@
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F254">
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B255">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C255">
         <v>543</v>
@@ -6281,18 +6333,18 @@
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F255">
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B256">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C256">
         <v>493</v>
@@ -6301,15 +6353,15 @@
         <v>487</v>
       </c>
       <c r="E256" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F256">
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B257">
         <v>4.7</v>
@@ -6321,18 +6373,18 @@
         <v>10</v>
       </c>
       <c r="E257" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F257">
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B258">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C258">
         <v>101</v>
@@ -6341,15 +6393,15 @@
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F258">
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B259">
         <v>4.8</v>
@@ -6361,18 +6413,18 @@
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F259">
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B260">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C260">
         <v>167</v>
@@ -6381,18 +6433,18 @@
         <v>4</v>
       </c>
       <c r="E260" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F260">
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B261">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C261">
         <v>251</v>
@@ -6401,18 +6453,18 @@
         <v>183</v>
       </c>
       <c r="E261" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F261">
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B262">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C262">
         <v>91</v>
@@ -6421,15 +6473,15 @@
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F262">
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B263">
         <v>5</v>
@@ -6441,18 +6493,18 @@
         <v>48</v>
       </c>
       <c r="E263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F263">
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B264">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C264">
         <v>18</v>
@@ -6461,18 +6513,18 @@
         <v>6</v>
       </c>
       <c r="E264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F264">
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B265">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C265">
         <v>61</v>
@@ -6481,15 +6533,15 @@
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F265">
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B266">
         <v>4.2</v>
@@ -6501,15 +6553,15 @@
         <v>73</v>
       </c>
       <c r="E266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F266">
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B267">
         <v>4.5</v>
@@ -6521,15 +6573,15 @@
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F267">
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B268">
         <v>4</v>
@@ -6541,15 +6593,15 @@
         <v>2</v>
       </c>
       <c r="E268" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F268">
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B269">
         <v>4.7</v>
@@ -6561,18 +6613,18 @@
         <v>45</v>
       </c>
       <c r="E269" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F269">
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B270">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C270">
         <v>51</v>
@@ -6581,18 +6633,18 @@
         <v>0</v>
       </c>
       <c r="E270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F270">
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B271">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C271">
         <v>61</v>
@@ -6601,15 +6653,15 @@
         <v>30</v>
       </c>
       <c r="E271" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F271">
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B272">
         <v>4.8</v>
@@ -6621,15 +6673,15 @@
         <v>0</v>
       </c>
       <c r="E272" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F272">
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B273">
         <v>4.7</v>
@@ -6641,15 +6693,15 @@
         <v>25</v>
       </c>
       <c r="E273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F273">
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B274">
         <v>4</v>
@@ -6661,15 +6713,15 @@
         <v>24</v>
       </c>
       <c r="E274" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F274">
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B275">
         <v>4</v>
@@ -6681,15 +6733,15 @@
         <v>0</v>
       </c>
       <c r="E275" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F275">
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B276">
         <v>4.8</v>
@@ -6701,15 +6753,15 @@
         <v>4</v>
       </c>
       <c r="E276" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F276">
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B277">
         <v>4</v>
@@ -6721,15 +6773,15 @@
         <v>0</v>
       </c>
       <c r="E277" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F277">
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B278">
         <v>3.5</v>
@@ -6741,15 +6793,15 @@
         <v>0</v>
       </c>
       <c r="E278" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F278">
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -6761,18 +6813,18 @@
         <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F279">
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B280">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C280">
         <v>245</v>
@@ -6781,15 +6833,15 @@
         <v>112</v>
       </c>
       <c r="E280" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F280">
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B281">
         <v>3.3</v>
@@ -6801,15 +6853,15 @@
         <v>0</v>
       </c>
       <c r="E281" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F281">
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -6821,15 +6873,15 @@
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F282">
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B283">
         <v>3.6</v>
@@ -6841,15 +6893,15 @@
         <v>8</v>
       </c>
       <c r="E283" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F283">
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B284">
         <v>4.5</v>
@@ -6861,15 +6913,15 @@
         <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F284">
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B285">
         <v>4.8</v>
@@ -6881,15 +6933,15 @@
         <v>21</v>
       </c>
       <c r="E285" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F285">
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B286">
         <v>4.7</v>
@@ -6901,18 +6953,18 @@
         <v>0</v>
       </c>
       <c r="E286" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F286">
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B287">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C287">
         <v>7</v>
@@ -6921,15 +6973,15 @@
         <v>2</v>
       </c>
       <c r="E287" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F287">
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6941,18 +6993,18 @@
         <v>0</v>
       </c>
       <c r="E288" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F288">
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B289">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C289">
         <v>8</v>
@@ -6961,18 +7013,18 @@
         <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F289">
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B290">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C290">
         <v>282</v>
@@ -6981,15 +7033,15 @@
         <v>211</v>
       </c>
       <c r="E290" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F290">
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B291">
         <v>4.7</v>
@@ -7001,18 +7053,18 @@
         <v>1</v>
       </c>
       <c r="E291" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F291">
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B292">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C292">
         <v>844</v>
@@ -7021,18 +7073,18 @@
         <v>813</v>
       </c>
       <c r="E292" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F292">
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B293">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C293">
         <v>108</v>
@@ -7041,15 +7093,15 @@
         <v>29</v>
       </c>
       <c r="E293" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F293">
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B294">
         <v>5</v>
@@ -7061,15 +7113,15 @@
         <v>0</v>
       </c>
       <c r="E294" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F294">
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B295">
         <v>4.8</v>
@@ -7081,18 +7133,18 @@
         <v>69</v>
       </c>
       <c r="E295" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F295">
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B296">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C296">
         <v>588</v>
@@ -7101,15 +7153,15 @@
         <v>229</v>
       </c>
       <c r="E296" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F296">
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B297">
         <v>4.7</v>
@@ -7121,15 +7173,15 @@
         <v>155</v>
       </c>
       <c r="E297" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F297">
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B298">
         <v>4.7</v>
@@ -7141,15 +7193,15 @@
         <v>55</v>
       </c>
       <c r="E298" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F298">
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B299">
         <v>5</v>
@@ -7161,18 +7213,18 @@
         <v>0</v>
       </c>
       <c r="E299" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F299">
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B300">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C300">
         <v>219</v>
@@ -7181,18 +7233,18 @@
         <v>1</v>
       </c>
       <c r="E300" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F300">
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B301">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C301">
         <v>445</v>
@@ -7201,15 +7253,15 @@
         <v>6</v>
       </c>
       <c r="E301" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F301">
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B302">
         <v>4.8</v>
@@ -7221,15 +7273,15 @@
         <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F302">
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B303">
         <v>4.2</v>
@@ -7241,15 +7293,15 @@
         <v>73</v>
       </c>
       <c r="E303" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F303">
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -7261,18 +7313,18 @@
         <v>0</v>
       </c>
       <c r="E304" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F304">
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B305">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C305">
         <v>62</v>
@@ -7281,15 +7333,15 @@
         <v>0</v>
       </c>
       <c r="E305" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F305">
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B306">
         <v>4.8</v>
@@ -7301,15 +7353,15 @@
         <v>42</v>
       </c>
       <c r="E306" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F306">
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B307">
         <v>4.7</v>
@@ -7321,18 +7373,18 @@
         <v>22</v>
       </c>
       <c r="E307" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F307">
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B308">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C308">
         <v>9</v>
@@ -7341,15 +7393,15 @@
         <v>0</v>
       </c>
       <c r="E308" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F308">
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B309">
         <v>4.5</v>
@@ -7361,15 +7413,15 @@
         <v>64</v>
       </c>
       <c r="E309" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F309">
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B310">
         <v>4.7</v>
@@ -7381,18 +7433,18 @@
         <v>0</v>
       </c>
       <c r="E310" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F310">
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B311">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C311">
         <v>56</v>
@@ -7401,15 +7453,15 @@
         <v>8</v>
       </c>
       <c r="E311" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F311">
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B312">
         <v>3</v>
@@ -7421,15 +7473,15 @@
         <v>0</v>
       </c>
       <c r="E312" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F312">
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B313">
         <v>4.2</v>
@@ -7441,18 +7493,18 @@
         <v>1</v>
       </c>
       <c r="E313" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F313">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B314">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C314">
         <v>204</v>
@@ -7461,15 +7513,15 @@
         <v>20</v>
       </c>
       <c r="E314" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F314">
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B315">
         <v>4.7</v>
@@ -7481,18 +7533,18 @@
         <v>1</v>
       </c>
       <c r="E315" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F315">
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B316">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C316">
         <v>29</v>
@@ -7501,18 +7553,18 @@
         <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F316">
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B317">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C317">
         <v>38</v>
@@ -7521,18 +7573,18 @@
         <v>11</v>
       </c>
       <c r="E317" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F317">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B318">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C318">
         <v>20</v>
@@ -7541,18 +7593,18 @@
         <v>17</v>
       </c>
       <c r="E318" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F318">
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B319">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C319">
         <v>33</v>
@@ -7561,18 +7613,18 @@
         <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F319">
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B320">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C320">
         <v>43</v>
@@ -7581,18 +7633,18 @@
         <v>0</v>
       </c>
       <c r="E320" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F320">
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B321">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C321">
         <v>18</v>
@@ -7601,15 +7653,15 @@
         <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F321">
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B322">
         <v>5</v>
@@ -7621,15 +7673,15 @@
         <v>0</v>
       </c>
       <c r="E322" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F322">
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B323">
         <v>4.2</v>
@@ -7641,18 +7693,18 @@
         <v>0</v>
       </c>
       <c r="E323" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F323">
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B324">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C324">
         <v>78</v>
@@ -7661,18 +7713,18 @@
         <v>0</v>
       </c>
       <c r="E324" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F324">
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B325">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C325">
         <v>19</v>
@@ -7681,18 +7733,18 @@
         <v>0</v>
       </c>
       <c r="E325" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F325">
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B326">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C326">
         <v>39</v>
@@ -7701,15 +7753,15 @@
         <v>5</v>
       </c>
       <c r="E326" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F326">
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B327">
         <v>4</v>
@@ -7721,15 +7773,15 @@
         <v>0</v>
       </c>
       <c r="E327" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F327">
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -7741,15 +7793,15 @@
         <v>0</v>
       </c>
       <c r="E328" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F328">
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B329">
         <v>5</v>
@@ -7761,15 +7813,15 @@
         <v>0</v>
       </c>
       <c r="E329" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F329">
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -7781,15 +7833,15 @@
         <v>0</v>
       </c>
       <c r="E330" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F330">
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -7801,18 +7853,18 @@
         <v>0</v>
       </c>
       <c r="E331" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F331">
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B332">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C332">
         <v>13</v>
@@ -7821,15 +7873,15 @@
         <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F332">
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B333">
         <v>4.8</v>
@@ -7841,15 +7893,15 @@
         <v>58</v>
       </c>
       <c r="E333" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F333">
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -7861,15 +7913,15 @@
         <v>0</v>
       </c>
       <c r="E334" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F334">
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B335">
         <v>4.8</v>
@@ -7881,15 +7933,15 @@
         <v>26</v>
       </c>
       <c r="E335" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F335">
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B336">
         <v>4.8</v>
@@ -7901,15 +7953,15 @@
         <v>74</v>
       </c>
       <c r="E336" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F336">
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B337">
         <v>4.5</v>
@@ -7921,15 +7973,15 @@
         <v>15</v>
       </c>
       <c r="E337" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F337">
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B338">
         <v>5</v>
@@ -7941,15 +7993,15 @@
         <v>0</v>
       </c>
       <c r="E338" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F338">
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B339">
         <v>4.8</v>
@@ -7961,15 +8013,15 @@
         <v>6</v>
       </c>
       <c r="E339" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F339">
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B340">
         <v>5</v>
@@ -7981,18 +8033,18 @@
         <v>7</v>
       </c>
       <c r="E340" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F340">
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B341">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C341">
         <v>60</v>
@@ -8001,15 +8053,15 @@
         <v>42</v>
       </c>
       <c r="E341" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F341">
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B342">
         <v>4.5</v>
@@ -8021,15 +8073,15 @@
         <v>8</v>
       </c>
       <c r="E342" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F342">
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -8041,15 +8093,15 @@
         <v>0</v>
       </c>
       <c r="E343" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F343">
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B344">
         <v>4.8</v>
@@ -8061,15 +8113,15 @@
         <v>67</v>
       </c>
       <c r="E344" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F344">
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B345">
         <v>5</v>
@@ -8081,18 +8133,18 @@
         <v>12</v>
       </c>
       <c r="E345" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F345">
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B346">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C346">
         <v>372</v>
@@ -8101,18 +8153,18 @@
         <v>0</v>
       </c>
       <c r="E346" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F346">
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B347">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C347">
         <v>251</v>
@@ -8121,15 +8173,15 @@
         <v>183</v>
       </c>
       <c r="E347" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F347">
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B348">
         <v>4.8</v>
@@ -8141,15 +8193,15 @@
         <v>0</v>
       </c>
       <c r="E348" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F348">
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B349">
         <v>4.8</v>
@@ -8161,15 +8213,15 @@
         <v>21</v>
       </c>
       <c r="E349" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F349">
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B350">
         <v>5</v>
@@ -8181,15 +8233,15 @@
         <v>3</v>
       </c>
       <c r="E350" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F350">
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B351">
         <v>4.3</v>
@@ -8201,15 +8253,15 @@
         <v>5</v>
       </c>
       <c r="E351" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F351">
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -8221,15 +8273,15 @@
         <v>0</v>
       </c>
       <c r="E352" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F352">
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -8241,15 +8293,15 @@
         <v>0</v>
       </c>
       <c r="E353" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F353">
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -8261,15 +8313,15 @@
         <v>0</v>
       </c>
       <c r="E354" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F354">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B355">
         <v>5</v>
@@ -8281,18 +8333,18 @@
         <v>0</v>
       </c>
       <c r="E355" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F355">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B356">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C356">
         <v>7</v>
@@ -8301,15 +8353,15 @@
         <v>7</v>
       </c>
       <c r="E356" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F356">
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -8321,15 +8373,15 @@
         <v>0</v>
       </c>
       <c r="E357" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F357">
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B358">
         <v>5</v>
@@ -8341,18 +8393,18 @@
         <v>0</v>
       </c>
       <c r="E358" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F358">
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B359">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C359">
         <v>72</v>
@@ -8361,15 +8413,15 @@
         <v>61</v>
       </c>
       <c r="E359" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F359">
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B360">
         <v>5</v>
@@ -8381,15 +8433,15 @@
         <v>0</v>
       </c>
       <c r="E360" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F360">
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -8401,15 +8453,15 @@
         <v>0</v>
       </c>
       <c r="E361" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F361">
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B362">
         <v>5</v>
@@ -8421,15 +8473,15 @@
         <v>1</v>
       </c>
       <c r="E362" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F362">
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B363">
         <v>5</v>
@@ -8441,15 +8493,15 @@
         <v>3</v>
       </c>
       <c r="E363" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F363">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -8461,15 +8513,15 @@
         <v>0</v>
       </c>
       <c r="E364" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F364">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -8481,15 +8533,15 @@
         <v>0</v>
       </c>
       <c r="E365" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F365">
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -8501,15 +8553,15 @@
         <v>0</v>
       </c>
       <c r="E366" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F366">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B367">
         <v>5</v>
@@ -8521,18 +8573,18 @@
         <v>0</v>
       </c>
       <c r="E367" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F367">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B368">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C368">
         <v>7</v>
@@ -8541,18 +8593,18 @@
         <v>7</v>
       </c>
       <c r="E368" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F368">
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B369">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C369">
         <v>72</v>
@@ -8561,18 +8613,18 @@
         <v>61</v>
       </c>
       <c r="E369" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F369">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B370">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C370">
         <v>149</v>
@@ -8581,15 +8633,15 @@
         <v>22</v>
       </c>
       <c r="E370" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F370">
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B371">
         <v>3.8</v>
@@ -8601,15 +8653,15 @@
         <v>0</v>
       </c>
       <c r="E371" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F371">
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B372">
         <v>5</v>
@@ -8621,15 +8673,15 @@
         <v>0</v>
       </c>
       <c r="E372" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F372">
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B373">
         <v>4.8</v>
@@ -8641,18 +8693,18 @@
         <v>3823</v>
       </c>
       <c r="E373" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F373">
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B374">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C374">
         <v>1302</v>
@@ -8661,18 +8713,18 @@
         <v>1301</v>
       </c>
       <c r="E374" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F374">
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B375">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C375">
         <v>1847</v>
@@ -8681,15 +8733,15 @@
         <v>29</v>
       </c>
       <c r="E375" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F375">
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B376">
         <v>4.8</v>
@@ -8701,15 +8753,15 @@
         <v>0</v>
       </c>
       <c r="E376" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F376">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B377">
         <v>5</v>
@@ -8721,18 +8773,18 @@
         <v>0</v>
       </c>
       <c r="E377" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F377">
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B378">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C378">
         <v>696</v>
@@ -8741,18 +8793,18 @@
         <v>0</v>
       </c>
       <c r="E378" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F378">
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B379">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C379">
         <v>1420</v>
@@ -8761,15 +8813,15 @@
         <v>301</v>
       </c>
       <c r="E379" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F379">
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B380">
         <v>4.8</v>
@@ -8781,15 +8833,15 @@
         <v>310</v>
       </c>
       <c r="E380" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F380">
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B381">
         <v>4.5</v>
@@ -8801,18 +8853,18 @@
         <v>0</v>
       </c>
       <c r="E381" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F381">
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B382">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C382">
         <v>1046</v>
@@ -8821,15 +8873,15 @@
         <v>0</v>
       </c>
       <c r="E382" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F382">
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B383">
         <v>4.7</v>
@@ -8841,15 +8893,15 @@
         <v>127</v>
       </c>
       <c r="E383" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F383">
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B384">
         <v>4.5</v>
@@ -8861,15 +8913,15 @@
         <v>0</v>
       </c>
       <c r="E384" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F384">
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B385">
         <v>4.7</v>
@@ -8881,15 +8933,15 @@
         <v>272</v>
       </c>
       <c r="E385" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F385">
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B386">
         <v>4.5</v>
@@ -8901,15 +8953,15 @@
         <v>128</v>
       </c>
       <c r="E386" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F386">
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B387">
         <v>4.8</v>
@@ -8921,15 +8973,15 @@
         <v>10</v>
       </c>
       <c r="E387" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F387">
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B388">
         <v>4.5</v>
@@ -8941,15 +8993,15 @@
         <v>0</v>
       </c>
       <c r="E388" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F388">
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B389">
         <v>4.8</v>
@@ -8961,18 +9013,18 @@
         <v>58</v>
       </c>
       <c r="E389" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F389">
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B390">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C390">
         <v>468</v>
@@ -8981,15 +9033,15 @@
         <v>316</v>
       </c>
       <c r="E390" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F390">
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B391">
         <v>4.7</v>
@@ -9001,18 +9053,18 @@
         <v>155</v>
       </c>
       <c r="E391" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F391">
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B392">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C392">
         <v>325</v>
@@ -9021,15 +9073,15 @@
         <v>29</v>
       </c>
       <c r="E392" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F392">
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B393">
         <v>4.7</v>
@@ -9041,15 +9093,15 @@
         <v>55</v>
       </c>
       <c r="E393" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F393">
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B394">
         <v>4.8</v>
@@ -9061,15 +9113,15 @@
         <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F394">
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B395">
         <v>4.5</v>
@@ -9081,15 +9133,15 @@
         <v>15</v>
       </c>
       <c r="E395" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F395">
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B396">
         <v>5</v>
@@ -9101,18 +9153,18 @@
         <v>0</v>
       </c>
       <c r="E396" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F396">
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B397">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C397">
         <v>661</v>
@@ -9121,15 +9173,15 @@
         <v>97</v>
       </c>
       <c r="E397" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F397">
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B398">
         <v>4.7</v>
@@ -9141,15 +9193,15 @@
         <v>2</v>
       </c>
       <c r="E398" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F398">
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B399">
         <v>4.5</v>
@@ -9161,15 +9213,15 @@
         <v>0</v>
       </c>
       <c r="E399" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F399">
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B400">
         <v>4</v>
@@ -9181,18 +9233,18 @@
         <v>0</v>
       </c>
       <c r="E400" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F400">
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B401">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C401">
         <v>19</v>
@@ -9201,18 +9253,18 @@
         <v>19</v>
       </c>
       <c r="E401" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F401">
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B402">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C402">
         <v>1161</v>
@@ -9221,18 +9273,18 @@
         <v>0</v>
       </c>
       <c r="E402" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F402">
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B403">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C403">
         <v>60</v>
@@ -9241,15 +9293,15 @@
         <v>42</v>
       </c>
       <c r="E403" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F403">
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B404">
         <v>4.5</v>
@@ -9261,15 +9313,15 @@
         <v>27</v>
       </c>
       <c r="E404" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F404">
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B405">
         <v>4.7</v>
@@ -9281,15 +9333,15 @@
         <v>0</v>
       </c>
       <c r="E405" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F405">
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -9301,15 +9353,15 @@
         <v>0</v>
       </c>
       <c r="E406" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F406">
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -9321,18 +9373,18 @@
         <v>0</v>
       </c>
       <c r="E407" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F407">
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B408">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C408">
         <v>564</v>
@@ -9341,15 +9393,15 @@
         <v>57</v>
       </c>
       <c r="E408" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F408">
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -9361,18 +9413,18 @@
         <v>0</v>
       </c>
       <c r="E409" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F409">
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B410">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C410">
         <v>662</v>
@@ -9381,18 +9433,18 @@
         <v>66</v>
       </c>
       <c r="E410" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F410">
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B411">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C411">
         <v>589</v>
@@ -9401,18 +9453,18 @@
         <v>0</v>
       </c>
       <c r="E411" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F411">
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B412">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C412">
         <v>579</v>
@@ -9421,18 +9473,18 @@
         <v>0</v>
       </c>
       <c r="E412" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F412">
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B413">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C413">
         <v>137</v>
@@ -9441,18 +9493,18 @@
         <v>137</v>
       </c>
       <c r="E413" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F413">
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B414">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C414">
         <v>543</v>
@@ -9461,18 +9513,18 @@
         <v>0</v>
       </c>
       <c r="E414" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F414">
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B415">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C415">
         <v>493</v>
@@ -9481,15 +9533,15 @@
         <v>487</v>
       </c>
       <c r="E415" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F415">
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B416">
         <v>4.8</v>
@@ -9501,18 +9553,18 @@
         <v>67</v>
       </c>
       <c r="E416" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F416">
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B417">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C417">
         <v>219</v>
@@ -9521,18 +9573,18 @@
         <v>1</v>
       </c>
       <c r="E417" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F417">
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B418">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C418">
         <v>445</v>
@@ -9541,15 +9593,15 @@
         <v>6</v>
       </c>
       <c r="E418" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F418">
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B419">
         <v>5</v>
@@ -9561,18 +9613,18 @@
         <v>12</v>
       </c>
       <c r="E419" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F419">
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B420">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C420">
         <v>529</v>
@@ -9581,15 +9633,15 @@
         <v>0</v>
       </c>
       <c r="E420" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F420">
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B421">
         <v>4.5</v>
@@ -9601,15 +9653,15 @@
         <v>0</v>
       </c>
       <c r="E421" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F421">
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B422">
         <v>4.8</v>
@@ -9621,15 +9673,15 @@
         <v>173</v>
       </c>
       <c r="E422" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F422">
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B423">
         <v>4.8</v>
@@ -9641,15 +9693,15 @@
         <v>296</v>
       </c>
       <c r="E423" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F423">
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B424">
         <v>4.5</v>
@@ -9661,18 +9713,18 @@
         <v>0</v>
       </c>
       <c r="E424" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F424">
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B425">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C425">
         <v>372</v>
@@ -9681,15 +9733,15 @@
         <v>0</v>
       </c>
       <c r="E425" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F425">
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B426">
         <v>4.8</v>
@@ -9701,15 +9753,15 @@
         <v>117</v>
       </c>
       <c r="E426" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F426">
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B427">
         <v>4.7</v>
@@ -9721,18 +9773,18 @@
         <v>214</v>
       </c>
       <c r="E427" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F427">
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B428">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C428">
         <v>101</v>
@@ -9741,15 +9793,15 @@
         <v>0</v>
       </c>
       <c r="E428" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F428">
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B429">
         <v>4.5</v>
@@ -9761,7 +9813,7 @@
         <v>155</v>
       </c>
       <c r="E429" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F429">
         <v>15</v>
